--- a/kelapaPolman.xlsx
+++ b/kelapaPolman.xlsx
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Kecamatan</t>
   </si>
@@ -1284,13 +1281,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="A1" sqref="A1:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="13.1818181818182" customWidth="1"/>
@@ -1302,7 +1299,7 @@
     <col min="9" max="9" width="16.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" customHeight="1" spans="1:9">
+    <row r="1" ht="29" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1327,471 +1324,420 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="1">
+        <v>152</v>
+      </c>
+      <c r="C2" s="1">
+        <v>128</v>
+      </c>
+      <c r="D2" s="2">
+        <v>940.09</v>
+      </c>
+      <c r="E2" s="3">
+        <v>394</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>-3.40835</v>
+      </c>
+      <c r="H2" s="1">
+        <v>119.30723</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1">
-        <v>152</v>
-      </c>
-      <c r="D2" s="1">
-        <v>128</v>
-      </c>
-      <c r="E2" s="2">
-        <v>940.09</v>
-      </c>
-      <c r="F2" s="3">
-        <v>394</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="B3" s="1">
+        <v>2173</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1470</v>
+      </c>
+      <c r="D3" s="2">
+        <v>869.67</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3262</v>
+      </c>
+      <c r="F3" s="4">
+        <v>416</v>
+      </c>
+      <c r="G3" s="5">
+        <v>-3.43654</v>
+      </c>
+      <c r="H3" s="1">
+        <v>119.40618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>612</v>
+      </c>
+      <c r="C4" s="1">
+        <v>163</v>
+      </c>
+      <c r="D4" s="2">
+        <v>479.76</v>
+      </c>
+      <c r="E4" s="3">
+        <v>845</v>
+      </c>
+      <c r="F4" s="4">
+        <v>10</v>
+      </c>
+      <c r="G4" s="6">
+        <v>-3.38349</v>
+      </c>
+      <c r="H4" s="1">
+        <v>119.35197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>968</v>
+      </c>
+      <c r="C5" s="1">
+        <v>940</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1194.44</v>
+      </c>
+      <c r="E5" s="3">
+        <v>843</v>
+      </c>
+      <c r="F5" s="4">
         <v>0</v>
       </c>
-      <c r="H2" s="5">
-        <v>-3.40835</v>
-      </c>
-      <c r="I2" s="1">
-        <v>119.30723</v>
+      <c r="G5" s="6">
+        <v>-3.38911</v>
+      </c>
+      <c r="H5" s="1">
+        <v>119.26969</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2173</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1470</v>
-      </c>
-      <c r="E3" s="2">
-        <v>869.67</v>
-      </c>
-      <c r="F3" s="3">
-        <v>3262</v>
-      </c>
-      <c r="G3" s="4">
-        <v>416</v>
-      </c>
-      <c r="H3" s="5">
-        <v>-3.43654</v>
-      </c>
-      <c r="I3" s="1">
-        <v>119.40618</v>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>442</v>
+      </c>
+      <c r="C6" s="1">
+        <v>376</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1100.58</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1669</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>-3.39848</v>
+      </c>
+      <c r="H6" s="1">
+        <v>119.21107</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1">
-        <v>612</v>
-      </c>
-      <c r="D4" s="1">
-        <v>163</v>
-      </c>
-      <c r="E4" s="2">
-        <v>479.76</v>
-      </c>
-      <c r="F4" s="3">
-        <v>845</v>
-      </c>
-      <c r="G4" s="4">
-        <v>10</v>
-      </c>
-      <c r="H4" s="6">
-        <v>-3.38349</v>
-      </c>
-      <c r="I4" s="1">
-        <v>119.35197</v>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2513</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2735</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1330.75</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2150</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>-3.35269</v>
+      </c>
+      <c r="H7" s="1">
+        <v>119.20218</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1">
-        <v>968</v>
-      </c>
-      <c r="D5" s="1">
-        <v>940</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1194.44</v>
-      </c>
-      <c r="F5" s="3">
-        <v>843</v>
-      </c>
-      <c r="G5" s="4">
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1">
+        <v>93</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>163.87</v>
+      </c>
+      <c r="E8" s="3">
+        <v>205</v>
+      </c>
+      <c r="F8" s="4">
+        <v>41</v>
+      </c>
+      <c r="G8" s="6">
+        <v>-3.12942</v>
+      </c>
+      <c r="H8" s="1">
+        <v>119.22099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1">
+        <v>230</v>
+      </c>
+      <c r="C9" s="1">
+        <v>66</v>
+      </c>
+      <c r="D9" s="2">
+        <v>847.16</v>
+      </c>
+      <c r="E9" s="3">
+        <v>261</v>
+      </c>
+      <c r="F9" s="4">
         <v>0</v>
       </c>
-      <c r="H5" s="6">
-        <v>-3.38911</v>
-      </c>
-      <c r="I5" s="1">
-        <v>119.26969</v>
+      <c r="G9" s="6">
+        <v>-3.23015</v>
+      </c>
+      <c r="H9" s="1">
+        <v>119.15154</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1">
-        <v>442</v>
-      </c>
-      <c r="D6" s="1">
-        <v>376</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1100.58</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1669</v>
-      </c>
-      <c r="G6" s="4">
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3231</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3528</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1218.99</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2140</v>
+      </c>
+      <c r="F10" s="4">
+        <v>29</v>
+      </c>
+      <c r="G10" s="5">
+        <v>-3.40322</v>
+      </c>
+      <c r="H10" s="1">
+        <v>119.18384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1">
+        <v>523</v>
+      </c>
+      <c r="C11" s="1">
+        <v>375</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1033.69</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1145</v>
+      </c>
+      <c r="F11" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="5">
-        <v>-3.39848</v>
-      </c>
-      <c r="I6" s="1">
-        <v>119.21107</v>
+      <c r="G11" s="5">
+        <v>-3.41914</v>
+      </c>
+      <c r="H11" s="1">
+        <v>119.16405</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2513</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2735</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1330.75</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2150</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>-3.35269</v>
-      </c>
-      <c r="I7" s="1">
-        <v>119.20218</v>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1">
+        <v>162</v>
+      </c>
+      <c r="C12" s="1">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2">
+        <v>925.82</v>
+      </c>
+      <c r="E12" s="3">
+        <v>563</v>
+      </c>
+      <c r="F12" s="4">
+        <v>498</v>
+      </c>
+      <c r="G12" s="6">
+        <v>-3.22142</v>
+      </c>
+      <c r="H12" s="1">
+        <v>118.92219</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1">
-        <v>93</v>
-      </c>
-      <c r="D8" s="1">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2">
-        <v>163.87</v>
-      </c>
-      <c r="F8" s="3">
-        <v>205</v>
-      </c>
-      <c r="G8" s="4">
-        <v>41</v>
-      </c>
-      <c r="H8" s="6">
-        <v>-3.12942</v>
-      </c>
-      <c r="I8" s="1">
-        <v>119.22099</v>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3623</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2614</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1197.97</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4046</v>
+      </c>
+      <c r="F13" s="4">
+        <v>292</v>
+      </c>
+      <c r="G13" s="5">
+        <v>-3.47668</v>
+      </c>
+      <c r="H13" s="1">
+        <v>119.14076</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1">
-        <v>230</v>
-      </c>
-      <c r="D9" s="1">
-        <v>66</v>
-      </c>
-      <c r="E9" s="2">
-        <v>847.16</v>
-      </c>
-      <c r="F9" s="3">
-        <v>261</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>-3.23015</v>
-      </c>
-      <c r="I9" s="1">
-        <v>119.15154</v>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1150</v>
+      </c>
+      <c r="C14" s="1">
+        <v>615</v>
+      </c>
+      <c r="D14" s="2">
+        <v>699.98</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1121</v>
+      </c>
+      <c r="F14" s="4">
+        <v>221</v>
+      </c>
+      <c r="G14" s="6">
+        <v>-3.50237</v>
+      </c>
+      <c r="H14" s="1">
+        <v>119.07752</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3231</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3528</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1218.99</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2140</v>
-      </c>
-      <c r="G10" s="4">
-        <v>29</v>
-      </c>
-      <c r="H10" s="5">
-        <v>-3.40322</v>
-      </c>
-      <c r="I10" s="1">
-        <v>119.18384</v>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2112</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2202</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1209.89</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3667</v>
+      </c>
+      <c r="F15" s="4">
+        <v>106</v>
+      </c>
+      <c r="G15" s="6">
+        <v>-3.50489</v>
+      </c>
+      <c r="H15" s="1">
+        <v>119.02165</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1">
-        <v>523</v>
-      </c>
-      <c r="D11" s="1">
-        <v>375</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1033.69</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1145</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>-3.41914</v>
-      </c>
-      <c r="I11" s="1">
-        <v>119.16405</v>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1725</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1686</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1205.64</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2052</v>
+      </c>
+      <c r="F16" s="4">
+        <v>135.9</v>
+      </c>
+      <c r="G16" s="5">
+        <v>-3.47806</v>
+      </c>
+      <c r="H16" s="1">
+        <v>119.02165</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1">
-        <v>162</v>
-      </c>
-      <c r="D12" s="1">
-        <v>53</v>
-      </c>
-      <c r="E12" s="2">
-        <v>925.82</v>
-      </c>
-      <c r="F12" s="3">
-        <v>563</v>
-      </c>
-      <c r="G12" s="4">
-        <v>498</v>
-      </c>
-      <c r="H12" s="6">
-        <v>-3.22142</v>
-      </c>
-      <c r="I12" s="1">
-        <v>118.92219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3623</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2614</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1197.97</v>
-      </c>
-      <c r="F13" s="3">
-        <v>4046</v>
-      </c>
-      <c r="G13" s="4">
-        <v>292</v>
-      </c>
-      <c r="H13" s="5">
-        <v>-3.47668</v>
-      </c>
-      <c r="I13" s="1">
-        <v>119.14076</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1150</v>
-      </c>
-      <c r="D14" s="1">
-        <v>615</v>
-      </c>
-      <c r="E14" s="2">
-        <v>699.98</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1121</v>
-      </c>
-      <c r="G14" s="4">
-        <v>221</v>
-      </c>
-      <c r="H14" s="6">
-        <v>-3.50237</v>
-      </c>
-      <c r="I14" s="1">
-        <v>119.07752</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2112</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2202</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1209.89</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3667</v>
-      </c>
-      <c r="G15" s="4">
-        <v>106</v>
-      </c>
-      <c r="H15" s="6">
-        <v>-3.50489</v>
-      </c>
-      <c r="I15" s="1">
-        <v>119.02165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="1">
-        <v>1725</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1686</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1205.64</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2052</v>
-      </c>
-      <c r="G16" s="4">
-        <v>135.9</v>
-      </c>
-      <c r="H16" s="5">
-        <v>-3.47806</v>
-      </c>
-      <c r="I16" s="1">
-        <v>119.02165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>24</v>
+      <c r="B17" s="1">
+        <v>770</v>
       </c>
       <c r="C17" s="1">
-        <v>770</v>
-      </c>
-      <c r="D17" s="1">
         <v>736</v>
       </c>
-      <c r="E17" s="2">
+      <c r="D17" s="2">
         <v>1326.72</v>
       </c>
-      <c r="F17" s="3">
+      <c r="E17" s="3">
         <v>734</v>
       </c>
-      <c r="G17" s="4">
+      <c r="F17" s="4">
         <v>495</v>
       </c>
-      <c r="H17" s="6">
+      <c r="G17" s="6">
         <v>-3.40495</v>
       </c>
-      <c r="I17" s="1">
+      <c r="H17" s="1">
         <v>118.98197</v>
       </c>
     </row>

--- a/kelapaPolman.xlsx
+++ b/kelapaPolman.xlsx
@@ -27,9 +27,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Kecamatan</t>
+  </si>
+  <si>
+    <t>TBM</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>TR/TT</t>
   </si>
   <si>
     <t>Jumlah(Ha)</t>
@@ -1281,13 +1290,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A17"/>
+      <selection activeCell="A1" sqref="A1:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="13.1818181818182" customWidth="1"/>
@@ -1297,19 +1306,21 @@
     <col min="7" max="7" width="17.2727272727273" customWidth="1"/>
     <col min="8" max="8" width="14.0909090909091" customWidth="1"/>
     <col min="9" max="9" width="16.1818181818182" customWidth="1"/>
+    <col min="10" max="10" width="9.54545454545454"/>
+    <col min="11" max="11" width="10.5454545454545"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" customHeight="1" spans="1:8">
+    <row r="1" ht="29" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1324,420 +1335,573 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>136.2</v>
+      </c>
+      <c r="D2">
+        <v>15.5</v>
+      </c>
+      <c r="E2" s="1">
         <v>152</v>
       </c>
-      <c r="C2" s="1">
+      <c r="F2" s="1">
         <v>128</v>
       </c>
-      <c r="D2" s="2">
+      <c r="G2" s="2">
         <v>940.09</v>
       </c>
-      <c r="E2" s="3">
+      <c r="H2" s="3">
         <v>394</v>
       </c>
-      <c r="F2" s="4">
+      <c r="I2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="5">
+      <c r="J2" s="5">
         <v>-3.40835</v>
       </c>
-      <c r="H2" s="1">
+      <c r="K2" s="1">
         <v>119.30723</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>66</v>
+      </c>
+      <c r="C3">
+        <v>1690.4</v>
+      </c>
+      <c r="D3">
+        <v>416.3</v>
+      </c>
+      <c r="E3" s="1">
         <v>2173</v>
       </c>
-      <c r="C3" s="1">
+      <c r="F3" s="1">
         <v>1470</v>
       </c>
-      <c r="D3" s="2">
+      <c r="G3" s="2">
         <v>869.67</v>
       </c>
-      <c r="E3" s="3">
+      <c r="H3" s="3">
         <v>3262</v>
       </c>
-      <c r="F3" s="4">
+      <c r="I3" s="4">
         <v>416</v>
       </c>
-      <c r="G3" s="5">
+      <c r="J3" s="5">
         <v>-3.43654</v>
       </c>
-      <c r="H3" s="1">
+      <c r="K3" s="1">
         <v>119.40618</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>61.5</v>
+      </c>
+      <c r="C4">
+        <v>339.45</v>
+      </c>
+      <c r="D4">
+        <v>210.63</v>
+      </c>
+      <c r="E4" s="1">
+        <v>612</v>
+      </c>
+      <c r="F4" s="1">
+        <v>163</v>
+      </c>
+      <c r="G4" s="2">
+        <v>479.76</v>
+      </c>
+      <c r="H4" s="3">
+        <v>845</v>
+      </c>
+      <c r="I4" s="4">
         <v>10</v>
       </c>
-      <c r="B4" s="1">
-        <v>612</v>
-      </c>
-      <c r="C4" s="1">
-        <v>163</v>
-      </c>
-      <c r="D4" s="2">
-        <v>479.76</v>
-      </c>
-      <c r="E4" s="3">
-        <v>845</v>
-      </c>
-      <c r="F4" s="4">
-        <v>10</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="J4" s="6">
         <v>-3.38349</v>
       </c>
-      <c r="H4" s="1">
+      <c r="K4" s="1">
         <v>119.35197</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>14.2</v>
+      </c>
+      <c r="C5">
+        <v>786.6</v>
+      </c>
+      <c r="D5">
+        <v>166.7</v>
+      </c>
+      <c r="E5" s="1">
         <v>968</v>
       </c>
-      <c r="C5" s="1">
+      <c r="F5" s="1">
         <v>940</v>
       </c>
-      <c r="D5" s="2">
+      <c r="G5" s="2">
         <v>1194.44</v>
       </c>
-      <c r="E5" s="3">
+      <c r="H5" s="3">
         <v>843</v>
       </c>
-      <c r="F5" s="4">
+      <c r="I5" s="4">
         <v>0</v>
       </c>
-      <c r="G5" s="6">
+      <c r="J5" s="6">
         <v>-3.38911</v>
       </c>
-      <c r="H5" s="1">
+      <c r="K5" s="1">
         <v>119.26969</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>19.05</v>
+      </c>
+      <c r="C6">
+        <v>341.7</v>
+      </c>
+      <c r="D6">
+        <v>81.5</v>
+      </c>
+      <c r="E6" s="1">
         <v>442</v>
       </c>
-      <c r="C6" s="1">
+      <c r="F6" s="1">
         <v>376</v>
       </c>
-      <c r="D6" s="2">
+      <c r="G6" s="2">
         <v>1100.58</v>
       </c>
-      <c r="E6" s="3">
+      <c r="H6" s="3">
         <v>1669</v>
       </c>
-      <c r="F6" s="4">
+      <c r="I6" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="5">
+      <c r="J6" s="5">
         <v>-3.39848</v>
       </c>
-      <c r="H6" s="1">
+      <c r="K6" s="1">
         <v>119.21107</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>312.72</v>
+      </c>
+      <c r="C7">
+        <v>2055.3</v>
+      </c>
+      <c r="D7">
+        <v>144.7</v>
+      </c>
+      <c r="E7" s="1">
         <v>2513</v>
       </c>
-      <c r="C7" s="1">
+      <c r="F7" s="1">
         <v>2735</v>
       </c>
-      <c r="D7" s="2">
+      <c r="G7" s="2">
         <v>1330.75</v>
       </c>
-      <c r="E7" s="3">
+      <c r="H7" s="3">
         <v>2150</v>
       </c>
-      <c r="F7" s="4">
+      <c r="I7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="5">
+      <c r="J7" s="5">
         <v>-3.35269</v>
       </c>
-      <c r="H7" s="1">
+      <c r="K7" s="1">
         <v>119.20218</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>43.8</v>
+      </c>
+      <c r="C8">
+        <v>37.5</v>
+      </c>
+      <c r="D8">
+        <v>11.6</v>
+      </c>
+      <c r="E8" s="1">
         <v>93</v>
       </c>
-      <c r="C8" s="1">
+      <c r="F8" s="1">
         <v>6</v>
       </c>
-      <c r="D8" s="2">
+      <c r="G8" s="2">
         <v>163.87</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>205</v>
       </c>
-      <c r="F8" s="4">
+      <c r="I8" s="4">
         <v>41</v>
       </c>
-      <c r="G8" s="6">
+      <c r="J8" s="6">
         <v>-3.12942</v>
       </c>
-      <c r="H8" s="1">
+      <c r="K8" s="1">
         <v>119.22099</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>86.5</v>
+      </c>
+      <c r="C9">
+        <v>77.53</v>
+      </c>
+      <c r="D9">
+        <v>65.73</v>
+      </c>
+      <c r="E9" s="1">
         <v>230</v>
       </c>
-      <c r="C9" s="1">
+      <c r="F9" s="1">
         <v>66</v>
       </c>
-      <c r="D9" s="2">
+      <c r="G9" s="2">
         <v>847.16</v>
       </c>
-      <c r="E9" s="3">
+      <c r="H9" s="3">
         <v>261</v>
       </c>
-      <c r="F9" s="4">
+      <c r="I9" s="4">
         <v>0</v>
       </c>
-      <c r="G9" s="6">
+      <c r="J9" s="6">
         <v>-3.23015</v>
       </c>
-      <c r="H9" s="1">
+      <c r="K9" s="1">
         <v>119.15154</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>125</v>
+      </c>
+      <c r="C10">
+        <v>2893.8</v>
+      </c>
+      <c r="D10">
+        <v>211.86</v>
+      </c>
+      <c r="E10" s="1">
         <v>3231</v>
       </c>
-      <c r="C10" s="1">
+      <c r="F10" s="1">
         <v>3528</v>
       </c>
-      <c r="D10" s="2">
+      <c r="G10" s="2">
         <v>1218.99</v>
       </c>
-      <c r="E10" s="3">
+      <c r="H10" s="3">
         <v>2140</v>
       </c>
-      <c r="F10" s="4">
+      <c r="I10" s="4">
         <v>29</v>
       </c>
-      <c r="G10" s="5">
+      <c r="J10" s="5">
         <v>-3.40322</v>
       </c>
-      <c r="H10" s="1">
+      <c r="K10" s="1">
         <v>119.18384</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>90.5</v>
+      </c>
+      <c r="C11">
+        <v>362.35</v>
+      </c>
+      <c r="D11">
+        <v>70.5</v>
+      </c>
+      <c r="E11" s="1">
         <v>523</v>
       </c>
-      <c r="C11" s="1">
+      <c r="F11" s="1">
         <v>375</v>
       </c>
-      <c r="D11" s="2">
+      <c r="G11" s="2">
         <v>1033.69</v>
       </c>
-      <c r="E11" s="3">
+      <c r="H11" s="3">
         <v>1145</v>
       </c>
-      <c r="F11" s="4">
+      <c r="I11" s="4">
         <v>0</v>
       </c>
-      <c r="G11" s="5">
+      <c r="J11" s="5">
         <v>-3.41914</v>
       </c>
-      <c r="H11" s="1">
+      <c r="K11" s="1">
         <v>119.16405</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>55.75</v>
+      </c>
+      <c r="C12">
+        <v>57.75</v>
+      </c>
+      <c r="D12">
+        <v>48.42</v>
+      </c>
+      <c r="E12" s="1">
         <v>162</v>
       </c>
-      <c r="C12" s="1">
+      <c r="F12" s="1">
         <v>53</v>
       </c>
-      <c r="D12" s="2">
+      <c r="G12" s="2">
         <v>925.82</v>
       </c>
-      <c r="E12" s="3">
+      <c r="H12" s="3">
         <v>563</v>
       </c>
-      <c r="F12" s="4">
+      <c r="I12" s="4">
         <v>498</v>
       </c>
-      <c r="G12" s="6">
+      <c r="J12" s="6">
         <v>-3.22142</v>
       </c>
-      <c r="H12" s="1">
+      <c r="K12" s="1">
         <v>118.92219</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>297</v>
+      </c>
+      <c r="C13">
+        <v>2182.01</v>
+      </c>
+      <c r="D13">
+        <v>1143.49</v>
+      </c>
+      <c r="E13" s="1">
         <v>3623</v>
       </c>
-      <c r="C13" s="1">
+      <c r="F13" s="1">
         <v>2614</v>
       </c>
-      <c r="D13" s="2">
+      <c r="G13" s="2">
         <v>1197.97</v>
       </c>
-      <c r="E13" s="3">
+      <c r="H13" s="3">
         <v>4046</v>
       </c>
-      <c r="F13" s="4">
+      <c r="I13" s="4">
         <v>292</v>
       </c>
-      <c r="G13" s="5">
+      <c r="J13" s="5">
         <v>-3.47668</v>
       </c>
-      <c r="H13" s="1">
+      <c r="K13" s="1">
         <v>119.14076</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>151.25</v>
+      </c>
+      <c r="C14">
+        <v>879</v>
+      </c>
+      <c r="D14">
+        <v>119.25</v>
+      </c>
+      <c r="E14" s="1">
         <v>1150</v>
       </c>
-      <c r="C14" s="1">
+      <c r="F14" s="1">
         <v>615</v>
       </c>
-      <c r="D14" s="2">
+      <c r="G14" s="2">
         <v>699.98</v>
       </c>
-      <c r="E14" s="3">
+      <c r="H14" s="3">
         <v>1121</v>
       </c>
-      <c r="F14" s="4">
+      <c r="I14" s="4">
         <v>221</v>
       </c>
-      <c r="G14" s="6">
+      <c r="J14" s="6">
         <v>-3.50237</v>
       </c>
-      <c r="H14" s="1">
+      <c r="K14" s="1">
         <v>119.07752</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>1820</v>
+      </c>
+      <c r="D15">
+        <v>259.2</v>
+      </c>
+      <c r="E15" s="1">
         <v>2112</v>
       </c>
-      <c r="C15" s="1">
+      <c r="F15" s="1">
         <v>2202</v>
       </c>
-      <c r="D15" s="2">
+      <c r="G15" s="2">
         <v>1209.89</v>
       </c>
-      <c r="E15" s="3">
+      <c r="H15" s="3">
         <v>3667</v>
       </c>
-      <c r="F15" s="4">
+      <c r="I15" s="4">
         <v>106</v>
       </c>
-      <c r="G15" s="6">
+      <c r="J15" s="6">
         <v>-3.50489</v>
       </c>
-      <c r="H15" s="1">
+      <c r="K15" s="1">
         <v>119.02165</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>225</v>
+      </c>
+      <c r="C16">
+        <v>1398.5</v>
+      </c>
+      <c r="D16">
+        <v>101.3</v>
+      </c>
+      <c r="E16" s="1">
         <v>1725</v>
       </c>
-      <c r="C16" s="1">
+      <c r="F16" s="1">
         <v>1686</v>
       </c>
-      <c r="D16" s="2">
+      <c r="G16" s="2">
         <v>1205.64</v>
       </c>
-      <c r="E16" s="3">
+      <c r="H16" s="3">
         <v>2052</v>
       </c>
-      <c r="F16" s="4">
+      <c r="I16" s="4">
         <v>135.9</v>
       </c>
-      <c r="G16" s="5">
+      <c r="J16" s="5">
         <v>-3.47806</v>
       </c>
-      <c r="H16" s="1">
+      <c r="K16" s="1">
         <v>119.02165</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="1">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>187</v>
+      </c>
+      <c r="C17">
+        <v>554.5</v>
+      </c>
+      <c r="D17">
+        <v>28.5</v>
+      </c>
+      <c r="E17" s="1">
         <v>770</v>
       </c>
-      <c r="C17" s="1">
+      <c r="F17" s="1">
         <v>736</v>
       </c>
-      <c r="D17" s="2">
+      <c r="G17" s="2">
         <v>1326.72</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>734</v>
       </c>
-      <c r="F17" s="4">
+      <c r="I17" s="4">
         <v>495</v>
       </c>
-      <c r="G17" s="6">
+      <c r="J17" s="6">
         <v>-3.40495</v>
       </c>
-      <c r="H17" s="1">
+      <c r="K17" s="1">
         <v>118.98197</v>
       </c>
     </row>
